--- a/seed_test.xlsx
+++ b/seed_test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="190">
   <si>
     <t>{L=0}</t>
   </si>
@@ -53,139 +53,190 @@
     <t>#48</t>
   </si>
   <si>
-    <t>Tablets &amp; iPads</t>
-  </si>
-  <si>
-    <t>ProdCatLev4-532628898138204449</t>
-  </si>
-  <si>
-    <t>Mobile Broadband Access</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-351075"));</t>
+    <t>Bookends &amp; Racks</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-1221973142117</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Width (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18548"));</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>SP-18548</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>91"-100"|26"-30"|21"-25"|16"-20"|11"-15"|Over 100"|61"-70"|Under 1/2"|51"-60"|41"-50"|31"-40"|6"-10"|2"-5"|81"-90"|1/2" to 1"|71"-80"</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Width (inches)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Desktop Organizer Material</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18549"));</t>
+  </si>
+  <si>
+    <t>SP-18549</t>
+  </si>
+  <si>
+    <t>Fabric|Bronze|Leather|Laminated Wood|Hardboard|Glass|Paper|Nitrile|Melamine|Acrylic|Steel|Silicone|Rubber|Brass|Polyvinyl Chloride|Wood|Plastic|Aluminum|Wrought Iron|Bamboo|Wood/Veneer|Wire Mesh|Metal|Vinyl|Marble|Cardboard|MDF|Paperboard|Faux Leather</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Height (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18546"));</t>
+  </si>
+  <si>
+    <t>SP-18546</t>
+  </si>
+  <si>
+    <t>6"-10"|91"-100"|81"-90"|2"-5"|71"-80"|26"-30"|21"-25"|16"-20"|11"-15"|Over 100"|61"-70"|Under 1/2"|51"-60"|41"-50"|31"-40"|1/2" to 1"</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Height (inches)</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18547"));</t>
+  </si>
+  <si>
+    <t>SP-18547</t>
+  </si>
+  <si>
+    <t>Shelves|Racks|Book Ends</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Color Family</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17441"));</t>
+  </si>
+  <si>
+    <t>SP-17441</t>
+  </si>
+  <si>
+    <t>Multicolor|Kraft|Orange|Green|Manila|Natural Kraft|Gold|Clear|Neon|Gray/Silver|Yellow|Blue|Brown|Beige|Red|Assorted|White|Black|Pink|Purple|Metallic|Ivory|Rose Gold</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Height in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-20654"));</t>
+  </si>
+  <si>
     <t>OPTIONAL</t>
   </si>
   <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>SP-20654</t>
+  </si>
+  <si>
+    <t>*Height (inches)</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Feature</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23555"));</t>
+  </si>
+  <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>SP-351075</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cellular Protocol</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-351074"));</t>
-  </si>
-  <si>
-    <t>SP-351074</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Models</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22492"));</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>SP-22492</t>
-  </si>
-  <si>
-    <t>Galaxy Note 2012 Edition|Galaxy Tab E|Galaxy Tab 4|Galaxy Note Pro|Galaxy Tab S|Galaxy Note 2014 Edition|Galaxy Tab S2|Galaxy Tab A|Galaxy Tab Pro|Galaxy Tab 2|Galaxy Tab|Galaxy View|Galaxy Tab Pro S|Galaxy Note 10.1|Galaxy Note 8.0|Galaxy Tab S3|Galaxy Tab 3</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Interface or Port Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-21791"));</t>
-  </si>
-  <si>
-    <t>SP-21791</t>
-  </si>
-  <si>
-    <t>USB Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22088"));</t>
-  </si>
-  <si>
-    <t>SP-22088</t>
-  </si>
-  <si>
-    <t>Mini USB 2.0|Mini USB, USB 2.0|Mini USB|USB 3.1|No|microUSB|USB 1.0, USB 2.0|microUSB 2.0|USB 2.0, USB 3.0, USB-C|Micro USB 3.0|USB-C, USB 2.0, OTG|Micro USB 2.0/USB 3.0|USB-C 3.1|USB-C|USB 2.0|USB 1.1|USB 3.0|Mini USB, USB|Micro USB 2.0/USB 3.1|microUSB, USB 2.0|USB 2.0, USB 3.0|Yes|USB 1.0</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Connectivity (Wireless)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22089"));</t>
-  </si>
-  <si>
-    <t>SP-22089</t>
-  </si>
-  <si>
-    <t>802.11/a/n|802.11/n/g/e|802.11/a|802.11n|802.11/g/n|802.11/n/e|802.11/a/b/g/n/ac|802.11/b/g/n/e|802.11ac with MIMO simultaneous dual band (2.4GHz and 5GHz)|802.11ax|Wireless|802.11ac (2.4GHz/5GHz)|802.11ac (2.4GHz/5Ghz) 1x2 MISO|802.11/a/c|802.11/b/g|802.11/a/b/g|802.11/a/b/g/n|802.11/a/b|802.11b/g/n|No|Wireless A/C|Internal NIC 10/100</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Operating Platform</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-18433"));</t>
-  </si>
-  <si>
-    <t>REQUIRED</t>
-  </si>
-  <si>
-    <t>SP-18433</t>
-  </si>
-  <si>
-    <t>Windows 10|Windows XP Pro|Windows XP|Windows VISTA|No OS|Chrome|Linux|Android|Windows 8 Pro|Windows 7 Pro|Windows 8|FreeDOS|Apple iOS|Windows 7|Windows 8.1|Windows 8.1 Pro|Fire OS|Windows RT 8.1|Windows 10 Pro|Windows RT</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Type of Tablet</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-351357"));</t>
-  </si>
-  <si>
-    <t>SP-351357</t>
-  </si>
-  <si>
-    <t>Security Devices</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-351079"));</t>
-  </si>
-  <si>
-    <t>SP-351079</t>
+    <t>SP-23555</t>
+  </si>
+  <si>
+    <t>Special feature of item (i.e. adjustable, stationary, etc)</t>
+  </si>
+  <si>
+    <t>Width in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21044"));</t>
+  </si>
+  <si>
+    <t>SP-21044</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Depth (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18545"));</t>
+  </si>
+  <si>
+    <t>SP-18545</t>
+  </si>
+  <si>
+    <t>31"-40"|1/2" to 1"|71"-80"|Under 1/2"|61"-70"|51"-60"|41"-50"|16"-20"|Over 100"|11"-15"|91"-100"|6"-10"|2"-5"|81"-90"|26"-30"|21"-25"</t>
+  </si>
+  <si>
+    <t>Book End &amp; Rack Depth (inches)</t>
+  </si>
+  <si>
+    <t>Series or Collection</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-22915"));</t>
+  </si>
+  <si>
+    <t>SP-22915</t>
+  </si>
+  <si>
+    <t>Items of a particular grouping, as merchandised and labeled by a manufacturer</t>
+  </si>
+  <si>
+    <t>Warranty Information</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21932"));</t>
+  </si>
+  <si>
+    <t>SP-21932</t>
+  </si>
+  <si>
+    <t>Limited Warranty|90 Day|30 Day|30 Year|60 Day|25 Year|Limited Lifetime Warranty|180 Day|1 Year|4 Year|3 Year|12 Year|2 Year|18 Month|Lifetime|8 Year|10 Year|6 Year|14 Day|5 Year|120 Day|Lifetime Mechanical Guarantee|50 Year|7 Year|15 Year|20 Year</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>True Color</t>
@@ -200,440 +251,337 @@
     <t>Actual manufacturer name for Color</t>
   </si>
   <si>
-    <t>Tablet Processor</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-13748"));</t>
-  </si>
-  <si>
-    <t>SP-13748</t>
-  </si>
-  <si>
-    <t>what kind of processor that the tablet has?</t>
-  </si>
-  <si>
-    <t>Video Playback</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4414"));</t>
-  </si>
-  <si>
-    <t>SP-4414</t>
-  </si>
-  <si>
-    <t>Audio Playback</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4413"));</t>
-  </si>
-  <si>
-    <t>SP-4413</t>
-  </si>
-  <si>
-    <t>Product Condition</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-18436"));</t>
-  </si>
-  <si>
-    <t>SP-18436</t>
-  </si>
-  <si>
-    <t>Refurbished|New</t>
+    <t>Weight (lbs.)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-20402"));</t>
+  </si>
+  <si>
+    <t>SP-20402</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>CNET_Specific_Short_Name</t>
+  </si>
+  <si>
+    <t>Magazine Holders</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-1221973160476</t>
+  </si>
+  <si>
+    <t>Literature Organizer Depth (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18638"));</t>
+  </si>
+  <si>
+    <t>SP-18638</t>
+  </si>
+  <si>
+    <t>71"-80"|1/2" to 1"|81"-90"|2"-5"|91"-100"|6"-10"|11"-15"|Over 100"|31"-40"|41"-50"|51"-60"|61"-70"|Under 1/2"|16"-20"|21"-25"|26"-30"</t>
+  </si>
+  <si>
+    <t>Literature Organizer Depth (inches)</t>
+  </si>
+  <si>
+    <t>Literature Organizer Height (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18639"));</t>
+  </si>
+  <si>
+    <t>SP-18639</t>
+  </si>
+  <si>
+    <t>26"-30"|31"-40"|41"-50"|51"-60"|6"-10"|91"-100"|Over 100"|11"-15"|16"-20"|21"-25"|Under 1/2"|61"-70"|1/2" to 1"|71"-80"|2"-5"|81"-90"</t>
+  </si>
+  <si>
+    <t>Literature Organizer Height (inches)</t>
+  </si>
+  <si>
+    <t>Literature Organizer Material</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18640"));</t>
+  </si>
+  <si>
+    <t>SP-18640</t>
+  </si>
+  <si>
+    <t>Steel|Marble|Metal|Bamboo|Wood|Brass|Aluminum|Paperboard|Cardboard|Plastic|Fabric|Poly|Faux Leather|Lacquer|Paper Laminate|Mesh|Fiberboard|Acrylic|Leather</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t># of Compartments</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21897"));</t>
+  </si>
+  <si>
+    <t>SP-21897</t>
+  </si>
+  <si>
+    <t>Wood Tone</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-9767"));</t>
+  </si>
+  <si>
+    <t>SP-9767</t>
+  </si>
+  <si>
+    <t>Medium Wood|Light Wood|Dark Wood</t>
+  </si>
+  <si>
+    <t>Length in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-20400"));</t>
+  </si>
+  <si>
+    <t>SP-20400</t>
+  </si>
+  <si>
+    <t>Refers to the Length of the product</t>
+  </si>
+  <si>
+    <t>Literature Organizer Width (Inches)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18643"));</t>
+  </si>
+  <si>
+    <t>SP-18643</t>
+  </si>
+  <si>
+    <t>81"-90"|6"-10"|91"-100"|Over 100"|11"-15"|41"-50"|51"-60"|61"-70"|Under 1/2"|1/2" to 1"|71"-80"|16"-20"|21"-25"|26"-30"|31"-40"|2"-5"</t>
+  </si>
+  <si>
+    <t>Literature Organizer Width (inches)</t>
+  </si>
+  <si>
+    <t>Literature Organizer Style</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18641"));</t>
+  </si>
+  <si>
+    <t>SP-18641</t>
+  </si>
+  <si>
+    <t>Traditional|Contemporary|Cottage/Country|Industrial|Modern</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Literature Organizer Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-18642"));</t>
+  </si>
+  <si>
+    <t>SP-18642</t>
+  </si>
+  <si>
+    <t>Compartment Organizers|Magazine Files|Magazine Stands|Free Standing|Display Panel Holder|Wall Organizers|Magazine Bins &amp; Baskets|Magazine Displays|Magazine Racks</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Shampoo &amp; Conditioner</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-542133609583214180</t>
+  </si>
+  <si>
+    <t>Pack Quantity</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-481"));</t>
+  </si>
+  <si>
+    <t>SP-481</t>
+  </si>
+  <si>
+    <t># of items in pack</t>
+  </si>
+  <si>
+    <t>Hair Care Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17363"));</t>
+  </si>
+  <si>
+    <t>SP-17363</t>
+  </si>
+  <si>
+    <t>Shampoo/Conditioner|Shampoo|Conditioner|Masque</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Shampoo or Conditioner Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23931"));</t>
+  </si>
+  <si>
+    <t>SP-23931</t>
+  </si>
+  <si>
+    <t>Curl Enhancer/Definer|Straightener|Deep Cleanse|Detangler|Dry|Deep Conditioning|Anti-Dandruff|Volumizing|Masque|Oil|Hot Oil|Leave-in|Repair/Reconstructive|Color Protection|Hydrating|Daily Rinse-Out</t>
+  </si>
+  <si>
+    <t>Shampoo or Conditioner</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23932"));</t>
+  </si>
+  <si>
+    <t>SP-23932</t>
+  </si>
+  <si>
+    <t>Shampoo|Conditioner</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Tablet RAM</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4411"));</t>
-  </si>
-  <si>
-    <t>SP-4411</t>
-  </si>
-  <si>
-    <t>6GB|8GB|3GB|4GB|64GB|512MB|16GB|32GB|1.5GB|2GB|1GB</t>
+    <t>Capacity (oz.)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21132"));</t>
+  </si>
+  <si>
+    <t>SP-21132</t>
+  </si>
+  <si>
+    <t>Shampoo Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17224"));</t>
+  </si>
+  <si>
+    <t>SP-17224</t>
+  </si>
+  <si>
+    <t>Volumizing Shampoos|Dry Shampoos|Smoothing Shampoos|3-in-1|Moisturizing Shampoos|Fine &amp; Thinning Hair Shampoos|Purifying &amp; Clarifying Shampoos|Neutralizing, Deep Cleansing Shampoos|Color Protection Shampoos|Conditioner|Curl Enhancing Shampoos|Daily Shampoos|Dandruff &amp; Medicated Shampoos</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Conditioner Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17225"));</t>
+  </si>
+  <si>
+    <t>SP-17225</t>
+  </si>
+  <si>
+    <t>Hot Oils|Hair Masques|Shampoo|Reconstructors|Volumizing Conditioners|Smoothing Conditioners|Cholesterols|Color Protection Conditioners|Leave-In Conditioners|Deep Conditioners|Daily Rinse-Out Conditioners</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Bluetooth Compatible</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-18712"));</t>
-  </si>
-  <si>
-    <t>SP-18712</t>
-  </si>
-  <si>
-    <t>Yes|No</t>
-  </si>
-  <si>
-    <t>Tablet Weight</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-19408"));</t>
-  </si>
-  <si>
-    <t>SP-19408</t>
-  </si>
-  <si>
-    <t>1 to 2.9 lbs.|Up to 1 lb.|6 lbs. +|3 to 5.9 lbs.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Expandable Memory (GB)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22059"));</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>SP-22059</t>
-  </si>
-  <si>
-    <t>iPad Models</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22455"));</t>
-  </si>
-  <si>
-    <t>SP-22455</t>
-  </si>
-  <si>
-    <t>iPad Air 2|iPad Pro 9.7|iPad Air|iPad w/Retina Display|iPad 2|iPad Pro 10.5|iPad 9.7|iPad Pro 12.9|iPad mini 4|iPad mini 2|iPad mini|iPad Pro|iPad mini 3</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Width in Inches</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-21044"));</t>
-  </si>
-  <si>
-    <t>SP-21044</t>
-  </si>
-  <si>
-    <t>Processor Speed (Ghz)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22057"));</t>
-  </si>
-  <si>
-    <t>SP-22057</t>
-  </si>
-  <si>
-    <t>Tablet Screen Size in Inches</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-350480"));</t>
-  </si>
-  <si>
-    <t>SP-350480</t>
-  </si>
-  <si>
-    <t>Tablet Display Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4408"));</t>
-  </si>
-  <si>
-    <t>SP-4408</t>
-  </si>
-  <si>
-    <t>Kit Includes</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4325"));</t>
-  </si>
-  <si>
-    <t>SP-4325</t>
-  </si>
-  <si>
-    <t>What does the Kit include?</t>
-  </si>
-  <si>
-    <t>Tablet Aspect Ratio</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4407"));</t>
-  </si>
-  <si>
-    <t>SP-4407</t>
-  </si>
-  <si>
-    <t>17:10|16:10|5:3|16:9|15:9|3:2|128:75|4:3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Tablet Resolution</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-4406"));</t>
-  </si>
-  <si>
-    <t>SP-4406</t>
-  </si>
-  <si>
-    <t>Color Family</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-17441"));</t>
-  </si>
-  <si>
-    <t>SP-17441</t>
-  </si>
-  <si>
-    <t>Multicolor|Kraft|Orange|Manila|Green|Natural Kraft|Gold|Neon|Clear|Gray/Silver|Yellow|Blue|Brown|Assorted|Beige|Red|Black|White|Pink|Purple|Metallic|Ivory|Rose Gold</t>
-  </si>
-  <si>
-    <t>Battery Life</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-19389"));</t>
-  </si>
-  <si>
-    <t>SP-19389</t>
-  </si>
-  <si>
-    <t>4 to 6 hours|8.5 hours +|7 to 8 hours|3 to 4 hours|Under 3 hours</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Photo Formats</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-801"));</t>
-  </si>
-  <si>
-    <t>SP-801</t>
-  </si>
-  <si>
-    <t>Useable format types</t>
-  </si>
-  <si>
-    <t>Warranty Information</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-21932"));</t>
-  </si>
-  <si>
-    <t>SP-21932</t>
-  </si>
-  <si>
-    <t>Limited Warranty|90 Day|30 Day|30 Year|60 Day|Limited Lifetime Warranty|25 Year|180 Day|1 Year|4 Year|12 Year|3 Year|2 Year|18 Month|Lifetime|8 Year|10 Year|14 Day|6 Year|5 Year|120 Day|Lifetime Mechanical Guarantee|50 Year|7 Year|15 Year|20 Year</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Weight (lbs.)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-20402"));</t>
-  </si>
-  <si>
-    <t>SP-20402</t>
-  </si>
-  <si>
-    <t>Pixel Density (PPI)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-23716"));</t>
-  </si>
-  <si>
-    <t>SP-23716</t>
-  </si>
-  <si>
-    <t>Measurement of the pixel density (resolution) of an electronic image device - numerical value</t>
-  </si>
-  <si>
-    <t>Battery Capacity (Wh)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22086"));</t>
-  </si>
-  <si>
-    <t>SP-22086</t>
-  </si>
-  <si>
-    <t>SD Card Slot Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22087"));</t>
-  </si>
-  <si>
-    <t>SP-22087</t>
-  </si>
-  <si>
-    <t>microSD|microSDHC|microSD, microSDXC|microSD, microSDHC, microSDXC|microSDXC|microSD, microSDHC, microSHD|microSDHC, microSHD|microTF|microSD, microSDHC|microSD, microSHD</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Front Camera (MP)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22084"));</t>
-  </si>
-  <si>
-    <t>SP-22084</t>
-  </si>
-  <si>
-    <t>Battery Capacity (mAh)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22085"));</t>
-  </si>
-  <si>
-    <t>SP-22085</t>
-  </si>
-  <si>
-    <t>Input Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-23691"));</t>
-  </si>
-  <si>
-    <t>SP-23691</t>
-  </si>
-  <si>
-    <t>Rear Camera (MP)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22082"));</t>
-  </si>
-  <si>
-    <t>SP-22082</t>
-  </si>
-  <si>
-    <t>Tablet Memory Capacity in GB</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22083"));</t>
-  </si>
-  <si>
-    <t>SP-22083</t>
-  </si>
-  <si>
-    <t>Height in Inches</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-20654"));</t>
-  </si>
-  <si>
-    <t>SP-20654</t>
-  </si>
-  <si>
-    <t>*Height (inches)</t>
-  </si>
-  <si>
-    <t>Display Specification</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-23841"));</t>
-  </si>
-  <si>
-    <t>SP-23841</t>
-  </si>
-  <si>
-    <t>describing of the display.
-e.g. High-Resolution, Glare-Free Touch Screen, LCD, Digital</t>
-  </si>
-  <si>
-    <t>Tablet Use</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-17532"));</t>
-  </si>
-  <si>
-    <t>SP-17532</t>
-  </si>
-  <si>
-    <t>Business|Everyday|Kids</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>WiFi Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-19390"));</t>
-  </si>
-  <si>
-    <t>SP-19390</t>
-  </si>
-  <si>
-    <t>Wired|WiFi</t>
-  </si>
-  <si>
-    <t>Built-in WiFi</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-577"));</t>
-  </si>
-  <si>
-    <t>SP-577</t>
-  </si>
-  <si>
-    <t>Refers to the type of battery the product uses</t>
-  </si>
-  <si>
-    <t>Series or Collection</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22915"));</t>
-  </si>
-  <si>
-    <t>SP-22915</t>
-  </si>
-  <si>
-    <t>Items of a particular grouping, as merchandised and labeled by a manufacturer</t>
-  </si>
-  <si>
-    <t>Memory Type</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-176"));</t>
-  </si>
-  <si>
-    <t>SP-176</t>
-  </si>
-  <si>
-    <t>Video Quality</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-23846"));</t>
-  </si>
-  <si>
-    <t>SP-23846</t>
-  </si>
-  <si>
-    <t>e.g. 720p HD video</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>CNET_Specific_Short_Name</t>
+    <t>Shampoo or Conditioner Features</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23933"));</t>
+  </si>
+  <si>
+    <t>SP-23933</t>
+  </si>
+  <si>
+    <t>Sulfate Free|Keratin|Tea Tree Oil|Botanical Extracts|Argan Oil|Coconut Oil</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Shampoo or Conditioner Scent</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23934"));</t>
+  </si>
+  <si>
+    <t>SP-23934</t>
+  </si>
+  <si>
+    <t>Examples:  Cherry, Fresh Peach, Unscented</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>COMMON_SECTIONS</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18548</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18546</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18547</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23555</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18545</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18638</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18639</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18640</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-9767</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18643</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18641</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-18642</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17363</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23931</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23932</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17224</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17225</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23933</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23934</t>
   </si>
 </sst>
 </file>
@@ -678,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -760,10 +708,10 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -774,10 +722,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -789,22 +737,22 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -815,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -827,10 +775,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -839,13 +787,13 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -856,10 +804,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -871,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -880,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -897,10 +845,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -909,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -921,13 +869,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -938,22 +886,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -962,10 +910,10 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -979,22 +927,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1003,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1020,22 +968,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1044,13 +992,13 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -1061,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1076,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1085,13 +1033,13 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1102,22 +1050,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -1126,13 +1074,13 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1143,22 +1091,22 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -1167,13 +1115,13 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1184,22 +1132,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -1208,13 +1156,13 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1225,22 +1173,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
@@ -1249,13 +1197,13 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1266,22 +1214,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -1290,27 +1238,27 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1319,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -1331,27 +1279,27 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1360,10 +1308,10 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1372,39 +1320,39 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1413,27 +1361,27 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1442,10 +1390,10 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1454,39 +1402,39 @@
         <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1495,39 +1443,39 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
@@ -1536,39 +1484,39 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
         <v>21</v>
@@ -1577,39 +1525,39 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -1618,39 +1566,39 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -1659,21 +1607,21 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
         <v>112</v>
@@ -1700,27 +1648,27 @@
         <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1729,10 +1677,10 @@
         <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -1741,27 +1689,27 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -1773,7 +1721,7 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -1782,39 +1730,39 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -1823,39 +1771,39 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -1864,39 +1812,39 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
@@ -1905,27 +1853,27 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -1934,10 +1882,10 @@
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -1946,39 +1894,39 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -1987,81 +1935,81 @@
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
         <v>145</v>
       </c>
-      <c r="D33" t="s">
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="s">
         <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" t="s">
-        <v>148</v>
-      </c>
-      <c r="M33" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
         <v>149</v>
       </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" t="s">
-        <v>151</v>
-      </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
@@ -2069,27 +2017,27 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -2098,39 +2046,39 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" t="s">
+        <v>150</v>
+      </c>
+      <c r="M35" t="s">
         <v>154</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2139,51 +2087,51 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" t="s">
+        <v>155</v>
+      </c>
+      <c r="M36" t="s">
         <v>159</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -2192,39 +2140,39 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L37" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -2233,39 +2181,39 @@
         <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -2274,39 +2222,39 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2315,39 +2263,39 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -2356,39 +2304,39 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L41" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -2400,36 +2348,36 @@
         <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -2438,39 +2386,39 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -2479,39 +2427,39 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="L44" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -2520,39 +2468,39 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -2561,39 +2509,39 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -2602,39 +2550,39 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
@@ -2643,39 +2591,39 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
@@ -2684,13 +2632,464 @@
         <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>107</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L51" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>136</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>141</v>
+      </c>
+      <c r="L55" t="s">
+        <v>45</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>145</v>
+      </c>
+      <c r="L56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>158</v>
+      </c>
+      <c r="L58" t="s">
+        <v>155</v>
+      </c>
+      <c r="M58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" t="s">
+        <v>168</v>
+      </c>
+      <c r="M60" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/seed_test.xlsx
+++ b/seed_test.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alekoz\Desktop\GitClone\JetpackComposeTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="seed_request" r:id="rId3" sheetId="1"/>
+    <sheet name="seed_request" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">seed_request!$A$1:$M$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="192">
   <si>
     <t>{L=0}</t>
   </si>
@@ -53,75 +63,405 @@
     <t>#48</t>
   </si>
   <si>
+    <t>Ear Protection</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-1718139811010167051</t>
+  </si>
+  <si>
+    <t>Color Family</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17441"));</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>SP-17441</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Multicolor|Kraft|Orange|Manila|Green|Natural Kraft|Neon|Gold|Clear|Gray/Silver|Yellow|Blue|Brown|Assorted|Red|Beige|Black|White|Pink|Metallic|Purple|Ivory|Rose Gold</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Corded or Cordless</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-19123"));</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>SP-19123</t>
+  </si>
+  <si>
+    <t>Cordless/Corded|Cordless|Corded</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ear Protection Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-13372"));</t>
+  </si>
+  <si>
+    <t>SP-13372</t>
+  </si>
+  <si>
+    <t>Replacement Pods|Pod Plug|Dispensers|Earplugs|Earmuffs</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Noise Reduction Rating</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-13373"));</t>
+  </si>
+  <si>
+    <t>SP-13373</t>
+  </si>
+  <si>
+    <t>36-40|29-35|20-28 dB</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17447"));</t>
+  </si>
+  <si>
+    <t>SP-17447</t>
+  </si>
+  <si>
+    <t>PET|Polymer|PVC|Vinyl/Metal|Latex|Stainless Steel|Wood|Porcelain|Silicone|Paper|Corn|Plastic|Acrylic|Metal|Gel|Vinyl|Wrought Iron|Wood/Veneer|Wire Mesh|Polyurethane|Assorted Materials|HDPE|Aluminum|Bamboo|Polyvinyl Chloride|Nitrile|Faux Leather|Melamine|Agricultural Waste|Glass|Iron|Cast Iron|Ceramic|Bronze|Particle Board|Lycra|Leather|Laminated Wood|Hardboard|Cardboard|Marble/Granite|Polyethylene|Fiberboard|Recycled zBoard|Nickel|Palm Leaf|Fiberglass|Fiber/Bagasse|Cloth|Feathers|Microfiber|Paperboard|Charcoal|Neoprene|Sand|Wool|Steel Mesh|Stoneware|Durable Fibers|Terracotta|Laminate|Steel Wool|Chipboard|Polyester|Polycarbonate|Composite|Nylon|Fabric|Cotton|Steel|Cedar|Resin|Blend|Satin|Phenolic|Polyethylene|Borosilicate Glass|LDPE|Pyrex Glass|Chlorobutyl|Polymethylpentene|TPX|Thermolite|PTFE|Styrene Acrylonitrile Copolymer|Polystyrene|Polypropylene|Porcelain Steel|Synthetic Fiber|Foam|Agave|Copper|Nylon/Polyester|Cellulose|Rubber|Poly|Olefin|Viscose|Concrete|Lambswool|Virgin Fiber|PVA|PLA</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Series or Collection</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-22915"));</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>SP-22915</t>
+  </si>
+  <si>
+    <t>Items of a particular grouping, as merchandised and labeled by a manufacturer</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>CNET_Specific_Short_Name</t>
+  </si>
+  <si>
+    <t>Puzzles</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-129911905</t>
+  </si>
+  <si>
+    <t>Learning Puzzle Topic</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-352864"));</t>
+  </si>
+  <si>
+    <t>SP-352864</t>
+  </si>
+  <si>
+    <t>Subtraction|History|Other|Addition|Alphabet|Division|Multi-Pack|Multiplication|Phonics|Sight Words|Spanish|States &amp; Capitals</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-352800"));</t>
+  </si>
+  <si>
+    <t>SP-352800</t>
+  </si>
+  <si>
+    <t>Is the product 3D?</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17438"));</t>
+  </si>
+  <si>
+    <t>SP-17438</t>
+  </si>
+  <si>
+    <t>Adult|All Ages|Youth</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-352801"));</t>
+  </si>
+  <si>
+    <t>SP-352801</t>
+  </si>
+  <si>
+    <t>Does the product have Knobs?</t>
+  </si>
+  <si>
+    <t>Puzzle Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-352802"));</t>
+  </si>
+  <si>
+    <t>SP-352802</t>
+  </si>
+  <si>
+    <t>Floor Puzzle|Accessory|Jigsaw Puzzle|Chunky Puzzle</t>
+  </si>
+  <si>
+    <t>Type of Puzzle</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Number of Puzzle Pieces</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-352803"));</t>
+  </si>
+  <si>
+    <t>SP-352803</t>
+  </si>
+  <si>
+    <t>1-100|101-250|251-500|501-750|751-1000|1001+</t>
+  </si>
+  <si>
+    <t>How many pieces per puzzle?</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Pack Qty</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-16747"));</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>SP-16747</t>
+  </si>
+  <si>
+    <t>Length in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-20400"));</t>
+  </si>
+  <si>
+    <t>SP-20400</t>
+  </si>
+  <si>
+    <t>Refers to the Length of the product</t>
+  </si>
+  <si>
+    <t>Width in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21044"));</t>
+  </si>
+  <si>
+    <t>SP-21044</t>
+  </si>
+  <si>
+    <t>Kids Theme</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17455"));</t>
+  </si>
+  <si>
+    <t>SP-17455</t>
+  </si>
+  <si>
+    <t>Smiley Face|Hearts|Text|Sparkle|Monsters|Magic|Other|Flags|Colors|Beach/Ocean|Animals|Seasons|Nature|Sports|Music|Movies|Balloons|Princess/Fairies|Transportation|Culture|Religious|School|Holiday|Western|TV Characters|Stars|Space|Stripes|Robots|Reading|Inspirational/Achievement|Multi-Themed</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Number of Pieces</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-15311"));</t>
+  </si>
+  <si>
+    <t>SP-15311</t>
+  </si>
+  <si>
+    <t>Number of pieces included in set</t>
+  </si>
+  <si>
+    <t>Weight (Ounces)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21134"));</t>
+  </si>
+  <si>
+    <t>SP-21134</t>
+  </si>
+  <si>
+    <t>Material of Item</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21408"));</t>
+  </si>
+  <si>
+    <t>SP-21408</t>
+  </si>
+  <si>
+    <t>ABS/SS Grid|ABS Plastic|Ductile Iron|Cloth|Wool|Cellulose|Copper|Agave|Silk|Foam|Synthetic Fiber|Polyester|Steel Wool|Laminate|Steel/Plastic|Fiberglass|Vinyl/Metal|Graphite|Ceramic|Glass|Iron|Durable Fibers|Marble/Granite|Melamine|Acrylic|Paper|Olefin|Bronze|Cardboard|Hardboard|Laminated Wood|Leather|Nitrile|Forged Steel|Canvas|EVA|Tweed|Immunity Steel|Faux Leather|Perforated plastic|Aluminum|Bamboo|Cast Iron|Polyvinyl Chloride/PVC|Vinyl|Wire Mesh|Wood/Veneer|Wrought Iron|Satin|Blend|Polypropylene/Aluminum|Felt|Polypropylene/PP|Chipboard|Stoneware|HDPE|Chemical Resistant Polymers|Gold-Plated|Kraft|Terracotta|Borosilicate Glass|Foil|Pyrex Glass|Polymethylpentene|Wax/Resin|TPX|Styrene Acrylonitrile Copolymer|Polystyrene|Phenolic|Coated Wire|Polyethylene|Low-Density Polyethylene/LDPE/LD|PEVA|zBoard|Lycra|Natural Rubber|Particle Board|Paperboard|Thermolite|Cellophane|PTFE|Fiberboard|Cotton/Synthetic|Corrugated|Plywood|Latex|Viscose|Assorted Materials|Gel|Sand|Diamond Coated Stainless Steel|Corn|Polymer|Chlorobutyl|Sisal|Jute|Cardstock|Nickel Titanium|Metal Wire|BPA-free Plastic|Fiber/Bagasse|PLA|TPE|Nylon/Polyester Fiber|Titanium Bonded|Plastic|Porcelain|Silicone|Clay|Stainless Steel|Charcoal|Wood|Steel mesh|Metal|Poly|Wax|Rubber|Resin|Mesh|Cedar|Acetate|Carbon Steel|Carbon Fiber|Nickel|Brass|Polyurethane/PUR/PU|Pressboard|Steel/Wood|Steel|Cotton|Fabric|ABS|Plexiglass|Nylon|Composite|Polycarbonate|Diamond|Concrete|Polyimide|Neoprene|Microfiber|High-Density Polyethylene/HDPE|Tyvek|Polypropylene/Cardboard|Feathers|Pastel|Zinc</t>
+  </si>
+  <si>
+    <t>What is the PRIMARY material that the item is made of?</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Borders &amp; Trims</t>
+  </si>
+  <si>
+    <t>ProdCatLev4-168633055229168929</t>
+  </si>
+  <si>
+    <t>Length (ft.)</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-21130"));</t>
+  </si>
+  <si>
+    <t>SP-21130</t>
+  </si>
+  <si>
+    <t>Banner Orientation</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-22094"));</t>
+  </si>
+  <si>
+    <t>SP-22094</t>
+  </si>
+  <si>
+    <t>Vertical|Both|Horizontal</t>
+  </si>
+  <si>
+    <t>Design and Pattern</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-23667"));</t>
+  </si>
+  <si>
+    <t>SP-23667</t>
+  </si>
+  <si>
+    <t>Design or Pattern of the product.</t>
+  </si>
+  <si>
+    <t>Height in Inches</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-20654"));</t>
+  </si>
+  <si>
+    <t>SP-20654</t>
+  </si>
+  <si>
+    <t>*Height (inches)</t>
+  </si>
+  <si>
+    <t>Printed Surface</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-22104"));</t>
+  </si>
+  <si>
+    <t>SP-22104</t>
+  </si>
+  <si>
+    <t>Double-Sided|Single-Sided</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Border &amp; Trim Type</t>
+  </si>
+  <si>
+    <t>Add(R("cnet_common_SP-17324"));</t>
+  </si>
+  <si>
+    <t>SP-17324</t>
+  </si>
+  <si>
+    <t>Banners|Chalkboard Topper|Borders/Trim</t>
+  </si>
+  <si>
     <t>Cleaning Carts</t>
   </si>
   <si>
     <t>ProdCatLev4-168339288178220906</t>
   </si>
   <si>
-    <t>Length (ft.)</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-21130"));</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>OPTIONAL</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>SP-21130</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Workwear Industry Type</t>
   </si>
   <si>
     <t>Add(R("cnet_common_SP-17513"));</t>
   </si>
   <si>
-    <t>REQUIRED</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
     <t>SP-17513</t>
   </si>
   <si>
-    <t>Housekeeping|Spa &amp; Salon|Restaurant|Hospitality|Medical|Entertainment|Sports Arenas|Tourism|Logistics|Security|Hotels|Banks|Garden &amp; Nursery|Airlines|Automotive|Construction|test|Food Processing|Parks &amp; Recreation|Janitorial|Waste Management|Transportation|Services|Manufacturing|Maintenance|Healthcare</t>
+    <t>Spa &amp; Salon|Housekeeping|Restaurant|Hospitality|Medical|Entertainment|Sports Arenas|Tourism|Logistics|Security|Hotels|Banks|Airlines|Garden &amp; Nursery|Automotive|Construction|test|Food Processing|Parks &amp; Recreation|Janitorial|Waste Management|Transportation|Services|Manufacturing|Maintenance|Healthcare</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-17447"));</t>
-  </si>
-  <si>
-    <t>SP-17447</t>
-  </si>
-  <si>
-    <t>PET|Polymer|PVC|Vinyl/Metal|Latex|Stainless Steel|Wood|Porcelain|Silicone|Corn|Paper|Plastic|Acrylic|Metal|Gel|Vinyl|Wrought Iron|Wood/Veneer|Wire Mesh|Polyurethane|HDPE|Assorted Materials|Aluminum|Bamboo|Polyvinyl Chloride|Nitrile|Faux Leather|Melamine|Agricultural Waste|Glass|Iron|Cast Iron|Ceramic|Bronze|Particle Board|Lycra|Leather|Laminated Wood|Hardboard|Cardboard|Marble/Granite|Polyethylene|Fiberboard|Recycled zBoard|Nickel|Palm Leaf|Fiberglass|Fiber/Bagasse|Cloth|Feathers|Microfiber|Paperboard|Neoprene|Charcoal|Sand|Wool|Durable Fibers|Steel Mesh|Stoneware|Terracotta|Laminate|Steel Wool|Polyester|Chipboard|Polycarbonate|Composite|Nylon|Fabric|Cotton|Steel|Cedar|Resin|Blend|Satin|Phenolic|Borosilicate Glass|Polyethylene|LDPE|Pyrex Glass|Chlorobutyl|Polymethylpentene|TPX|Thermolite|Styrene Acrylonitrile Copolymer|PTFE|Polystyrene|Polypropylene|Porcelain Steel|Synthetic Fiber|Foam|Agave|Copper|Nylon/Polyester|Cellulose|Rubber|Poly|Olefin|Viscose|Concrete|Lambswool|Virgin Fiber|PVA|PLA</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>Cleaning Cart Type</t>
   </si>
   <si>
@@ -131,7 +471,7 @@
     <t>SP-24361</t>
   </si>
   <si>
-    <t>Waste Cart|Lobby Pan|Universal Cart|Utility Cart|Cart Accessory|Replacement Bag|Auto Dolly|Cleaning Cart</t>
+    <t>Waste Cart|Universal Cart|Lobby Pan|Utility Cart|Cart Accessory|Replacement Bag|Auto Dolly|Cleaning Cart</t>
   </si>
   <si>
     <t>For Formula</t>
@@ -146,30 +486,12 @@
     <t>Add(R("cnet_common_SP-21356"));</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <t>SP-21356</t>
   </si>
   <si>
     <t>Depth (ft.)</t>
   </si>
   <si>
-    <t>Color Family</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-17441"));</t>
-  </si>
-  <si>
-    <t>SP-17441</t>
-  </si>
-  <si>
-    <t>Multicolor|Kraft|Orange|Green|Manila|Natural Kraft|Gold|Clear|Neon|Gray/Silver|Yellow|Blue|Brown|Beige|Red|Assorted|White|Black|Pink|Purple|Metallic|Ivory|Rose Gold</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Width (ft.)</t>
   </si>
   <si>
@@ -206,39 +528,6 @@
     <t>Non-adjustable|Adjustable</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Material of Item</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-21408"));</t>
-  </si>
-  <si>
-    <t>SP-21408</t>
-  </si>
-  <si>
-    <t>ABS/SS Grid|ABS Plastic|Ductile Iron|Cloth|Wool|Cellulose|Copper|Agave|Silk|Foam|Synthetic Fiber|Polyester|Steel Wool|Laminate|Steel/Plastic|Fiberglass|Vinyl/Metal|Graphite|Ceramic|Glass|Iron|Durable Fibers|Melamine|Marble/Granite|Acrylic|Paper|Olefin|Bronze|Cardboard|Hardboard|Laminated Wood|Leather|Nitrile|Forged Steel|Canvas|EVA|Tweed|Immunity Steel|Faux Leather|Perforated plastic|Aluminum|Bamboo|Cast Iron|Polyvinyl Chloride/PVC|Vinyl|Wire Mesh|Wood/Veneer|Wrought Iron|Satin|Polypropylene/Aluminum|Blend|Polypropylene/PP|Felt|Chipboard|Stoneware|HDPE|Chemical Resistant Polymers|Gold-Plated|Kraft|Terracotta|Borosilicate Glass|Foil|Pyrex Glass|Wax/Resin|Polymethylpentene|TPX|Styrene Acrylonitrile Copolymer|Polystyrene|Phenolic|Polyethylene|Coated Wire|Low-Density Polyethylene/LDPE/LD|PEVA|zBoard|Lycra|Natural Rubber|Particle Board|Paperboard|Thermolite|Cellophane|PTFE|Fiberboard|Cotton/Synthetic|Latex|Corrugated|Plywood|Viscose|Assorted Materials|Gel|Sand|Diamond Coated Stainless Steel|Corn|Polymer|Chlorobutyl|Sisal|Jute|Cardstock|Nickel Titanium|Metal Wire|BPA-free Plastic|Fiber/Bagasse|PLA|TPE|Nylon/Polyester Fiber|Titanium Bonded|Plastic|Porcelain|Silicone|Stainless Steel|Clay|Steel mesh|Charcoal|Wood|Metal|Poly|Wax|Rubber|Resin|Mesh|Cedar|Acetate|Carbon Steel|Carbon Fiber|Nickel|Brass|Polyurethane/PUR/PU|Pressboard|Steel/Wood|Steel|Cotton|Fabric|ABS|Plexiglass|Nylon|Composite|Polycarbonate|Diamond|Concrete|Polyimide|Neoprene|High-Density Polyethylene/HDPE|Microfiber|Polypropylene/Cardboard|Tyvek|Feathers|Pastel|Zinc</t>
-  </si>
-  <si>
-    <t>What is the PRIMARY material that the item is made of?</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Series or Collection</t>
-  </si>
-  <si>
-    <t>Add(R("cnet_common_SP-22915"));</t>
-  </si>
-  <si>
-    <t>SP-22915</t>
-  </si>
-  <si>
-    <t>Items of a particular grouping, as merchandised and labeled by a manufacturer</t>
-  </si>
-  <si>
     <t>True Color</t>
   </si>
   <si>
@@ -260,16 +549,46 @@
     <t>SP-21238</t>
   </si>
   <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>CNET_Specific_Short_Name</t>
-  </si>
-  <si>
     <t>COMMON</t>
   </si>
   <si>
     <t>COMMON_SECTIONS</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-13372</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-13373</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-352864</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-352800</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17438</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-352801</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-352802</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-352803</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17455</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-22094</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-23667</t>
+  </si>
+  <si>
+    <t>cnet_common_SP-17324</t>
   </si>
   <si>
     <t>cnet_common_SP-17513</t>
@@ -284,11 +603,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,7 +618,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -318,18 +636,302 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -405,13 +1007,13 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -419,40 +1021,40 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -460,22 +1062,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -484,16 +1086,16 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -501,10 +1103,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -513,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -525,16 +1127,16 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -542,10 +1144,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -554,28 +1156,28 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -583,19 +1185,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
@@ -607,16 +1209,16 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
       <c r="M7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -624,45 +1226,45 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -674,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
@@ -692,18 +1294,18 @@
         <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -715,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>62</v>
@@ -730,27 +1332,27 @@
         <v>22</v>
       </c>
       <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
         <v>63</v>
       </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
       <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -759,80 +1361,80 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="L11" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="M11" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D13" t="s">
         <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -841,39 +1443,39 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -885,48 +1487,48 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -935,80 +1537,80 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1017,57 +1619,1985 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>155</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
         <v>23</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>156</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>162</v>
+      </c>
+      <c r="L44" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
+      </c>
+      <c r="L46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
         <v>46</v>
       </c>
-      <c r="M18" t="s">
-        <v>23</v>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>171</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s">
+        <v>187</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>125</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>189</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>144</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>155</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:M1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>